--- a/表格模版/林道.xlsx
+++ b/表格模版/林道.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30620" windowHeight="9560"/>
+    <workbookView windowWidth="20820" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -13,20 +13,19 @@
 </workbook>
 </file>
 
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>客户订单号</t>
   </si>
   <si>
-    <t>FBA18KGJYRC2</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>带电</t>
     </r>
     <r>
@@ -34,7 +33,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -48,6 +46,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>服务</t>
     </r>
     <r>
@@ -55,7 +59,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -66,6 +69,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>带磁</t>
     </r>
     <r>
@@ -73,7 +82,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -86,10 +94,13 @@
     <t>FBA仓码</t>
   </si>
   <si>
-    <t>AVP1</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>液体</t>
     </r>
     <r>
@@ -97,7 +108,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -108,6 +118,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>收件人姓名</t>
     </r>
     <r>
@@ -115,14 +131,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>粉末</t>
     </r>
     <r>
@@ -130,7 +151,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -144,6 +164,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>危险品</t>
     </r>
     <r>
@@ -151,7 +177,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -162,6 +187,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>收件人地址一</t>
     </r>
     <r>
@@ -169,16 +200,10 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Amazon.com Services, Inc.
-550 Oak Ridge Road
-Hazle Township, PA 18202-9361</t>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>报关方式*</t>
@@ -209,6 +234,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>收件人城市</t>
     </r>
     <r>
@@ -216,14 +247,10 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Hazle Township</t>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>交货条款</t>
@@ -236,6 +263,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>VAT号</t>
     </r>
     <r>
@@ -243,7 +276,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -254,6 +286,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>收件人邮编</t>
     </r>
     <r>
@@ -261,14 +299,10 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>18202-9361</t>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>参考号一</t>
@@ -278,6 +312,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>收件人国家</t>
     </r>
     <r>
@@ -285,14 +325,10 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>US</t>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>参考号二</t>
@@ -325,10 +361,13 @@
     <t>PO Number*</t>
   </si>
   <si>
-    <t>3OHGXTGL</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>货箱编号</t>
     </r>
     <r>
@@ -336,7 +375,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -347,6 +385,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>货箱重量(KG)</t>
     </r>
     <r>
@@ -354,14 +398,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>货箱长度(</t>
     </r>
     <r>
@@ -369,7 +418,6 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CM)</t>
@@ -379,14 +427,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>货箱宽度(</t>
     </r>
     <r>
@@ -394,7 +447,6 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CM)</t>
@@ -404,14 +456,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>货箱高度(</t>
     </r>
     <r>
@@ -419,7 +476,6 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>CM)</t>
@@ -429,14 +485,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品英文品名</t>
     </r>
     <r>
@@ -444,14 +505,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品中文品名</t>
     </r>
     <r>
@@ -459,14 +525,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品申报单价</t>
     </r>
     <r>
@@ -474,7 +545,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -485,6 +555,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品申报数量</t>
     </r>
     <r>
@@ -492,14 +568,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品材质</t>
     </r>
     <r>
@@ -507,14 +588,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品海关编码</t>
     </r>
     <r>
@@ -522,14 +608,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品用途</t>
     </r>
     <r>
@@ -537,14 +628,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品品牌</t>
     </r>
     <r>
@@ -552,14 +648,19 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>产品型号</t>
     </r>
     <r>
@@ -567,7 +668,6 @@
         <sz val="9"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -617,21 +717,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF777777"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -774,14 +871,12 @@
       <sz val="9"/>
       <color indexed="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1835,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.6"/>
@@ -1852,21 +1947,19 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
@@ -1876,23 +1969,23 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:16">
       <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="5"/>
@@ -1902,23 +1995,21 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:16">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="5"/>
@@ -1928,23 +2019,21 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:16">
       <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="5"/>
@@ -1954,23 +2043,21 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="8"/>
@@ -1980,23 +2067,21 @@
     </row>
     <row r="6" ht="123" customHeight="1" spans="1:16">
       <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="5"/>
@@ -2006,19 +2091,19 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="5"/>
@@ -2028,19 +2113,19 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="5"/>
@@ -2050,21 +2135,19 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:16">
       <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="5"/>
@@ -2074,19 +2157,19 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:16">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="5"/>
@@ -2096,21 +2179,19 @@
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:16">
       <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="5"/>
@@ -2120,21 +2201,19 @@
     </row>
     <row r="12" ht="14" spans="1:13">
       <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="5"/>
@@ -2143,21 +2222,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="5"/>
@@ -2166,21 +2243,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="5"/>
@@ -2189,7 +2264,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
@@ -2197,11 +2272,9 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="23"/>
@@ -2212,76 +2285,76 @@
     </row>
     <row r="16" ht="14" spans="1:24">
       <c r="A16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="K16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="L16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="M16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="N16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="O16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="P16" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="Q16" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="R16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="S16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="T16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="U16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="V16" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="W16" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="X16" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="U16" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="V16" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="W16" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="67" customHeight="1" spans="1:24">
